--- a/summary/summary.xlsx
+++ b/summary/summary.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwieczorek\PycharmProjects\vix_project\summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CB9DDA-A1F8-40CE-8A03-0DB80D8F3CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD11014-0DB7-476B-8230-34707AC9C7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-17592" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VVIX_vs_VIX" sheetId="9" r:id="rId1"/>
+    <sheet name="VIX_estimation" sheetId="9" r:id="rId1"/>
     <sheet name="Correlation Matrix" sheetId="8" r:id="rId2"/>
     <sheet name="all" sheetId="7" r:id="rId3"/>
     <sheet name="vvix_monthly" sheetId="5" r:id="rId4"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="199">
   <si>
     <t>Close</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Based on the p-values printed, we can see that there is statistical evidence to suggest that VVIX Granger causes VIX at lags 2 through 30, with decreasing levels of significance at larger lags. This means that past values of VVIX are useful in predicting future values of VIX, which could suggest that VVIX is front running VIX to some extent.</t>
-  </si>
-  <si>
-    <t>Linear Regression</t>
   </si>
   <si>
     <t xml:space="preserve">                      OLS Regression Results                      </t>
@@ -348,41 +345,463 @@
     <t>NON - LINEAR</t>
   </si>
   <si>
-    <t>Random Forest</t>
-  </si>
-  <si>
-    <t>R-squared:  -0.991332478338856</t>
-  </si>
-  <si>
-    <t>Mean squared error:  46.26367453755745</t>
-  </si>
-  <si>
     <t>An R-squared value of -0.9913 means that the model explains only about 0.87% of the variability in the data. This suggests that the model does not fit the data well and it is not able to explain the relationship between the VIX and VVIX.</t>
   </si>
   <si>
     <t>The mean squared error (MSE) of 46.2637 measures the average of the squared differences between the predicted and actual values of the VIX. A lower MSE indicates better fit between the predicted and actual values. However, in this case, since the R-squared is very low, it suggests that the model is not reliable for predicting the VIX based on VVIX using the Random Forest algorithm.</t>
   </si>
   <si>
-    <t>Gradient Boosting</t>
+    <t>Mean squared error:  0.008579176850616932</t>
   </si>
   <si>
-    <t>R-squared:  0.3913564421274107</t>
+    <t>R-squared:  -0.9976283851843208</t>
   </si>
   <si>
-    <t>Mean squared error:  30.795823868463426</t>
+    <t>The mean squared error (MSE) is a measure of how well the model performed on the test data. It is calculated as the average of the squared differences between the predicted values and the actual values. In this case, the MSE value of 0.00858 suggests that the model's predictions have an average squared error of 0.00858.</t>
   </si>
   <si>
-    <t>The R-squared value of 0.39 indicates that the Gradient Boosting model explains 39% of the variability in the dependent variable (VIX) based on the independent variable (VVIX). The closer the R-squared value is to 1, the better the model fits the data. Therefore, a value of 0.39 suggests that the model is not able to capture all the variation in the data and could potentially be improved.</t>
+    <t>The R-squared value is a statistical measure that represents the proportion of the variance in the dependent variable that is explained by the independent variables in the model. An R-squared value of 1 indicates a perfect fit, where all of the variance in the dependent variable is explained by the model. An R-squared value of 0 indicates that the model does not explain any of the variance in the dependent variable. In this case, the R-squared value of -0.9976 suggests that the model has a very poor fit to the data and does not explain much of the variance in the dependent variable. However, it's also possible that the negative R-squared value indicates that the model is a poor fit for the data or that there may be an issue with the data itself.</t>
   </si>
   <si>
-    <t>The mean squared error (MSE) of 30.80 measures the average of the squared differences between the predicted and actual values of the VIX. A lower MSE indicates better fit between the predicted and actual values. Therefore, a value of 30.80 suggests that the model has some degree of accuracy in predicting the VIX based on the VVIX. However, it is important to keep in mind that the MSE value should be interpreted in the context of the data and problem being addressed, and also in comparison to other models or benchmarks.</t>
+    <t>1. Recurrent Neural Networks (RNNs): RNNs are commonly used in finance to predict time-series data, such as stock prices, exchange rates, and commodity prices. RNNs are designed to handle sequential data and can capture temporal dependencies between input and output variables.</t>
+  </si>
+  <si>
+    <t>2. Convolutional Neural Networks (CNNs): CNNs are often used in finance for image recognition tasks, such as analyzing charts and graphs. CNNs can also be used to process time-series data and can capture local patterns in the data.</t>
+  </si>
+  <si>
+    <t>3. Autoencoders: Autoencoders are neural networks that can be used for unsupervised learning and can help identify patterns and anomalies in financial data. Autoencoders can be used for tasks such as detecting fraudulent transactions and identifying trading opportunities.</t>
+  </si>
+  <si>
+    <t>4. Long Short-Term Memory Networks (LSTMs): LSTMs are a type of RNN that are designed to handle longer-term dependencies in time-series data. LSTMs can be used to predict financial market prices and can also be used for tasks such as sentiment analysis and risk management.</t>
+  </si>
+  <si>
+    <t>5. Deep Reinforcement Learning (DRL): DRL is a type of machine learning that combines deep neural networks with reinforcement learning. DRL can be used in finance to optimize trading strategies and portfolio management.</t>
+  </si>
+  <si>
+    <t>Neural Networks</t>
+  </si>
+  <si>
+    <t>This code is fitting a Random Forest Regression model to predict the VIX index based on the VVIX index, and evaluating the performance of the model using the R-squared and Mean Squared Error metrics.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">More specifically, the code downloads daily historical data for the VIX and VVIX indices from Yahoo Finance using the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>yf.download()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method, merges the data into a single dataframe named </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>combined_df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and removes any missing or infinite values.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Then, the code splits the data into training and testing sets using an 80/20 split, and fits a Random Forest Regression model to predict the VIX index using the VVIX index as the predictor variable. The model is trained on the training data using the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>fit()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>RandomForestRegressor()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class from scikit-learn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Next, the code uses the trained model to make predictions on the testing data using the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>predict()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method of the model. The predictions are stored in an array named </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>predictions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finally, the code evaluates the performance of the model by computing the R-squared and Mean Squared Error metrics between the predicted and actual values of the VIX index on the testing data, and prints the results to the console using the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>r2_score()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>mean_squared_error()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> functions from scikit-learn.</t>
+    </r>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>Average R-squared:  -1.002257045097954</t>
+  </si>
+  <si>
+    <t>Average Mean Squared Error:  46.51747976923245</t>
+  </si>
+  <si>
+    <t>Average R-squared:  0.42779411354545227</t>
+  </si>
+  <si>
+    <t>Average Mean Squared Error:  29.74458747910977</t>
+  </si>
+  <si>
+    <t>The R-squared value of 0.43 indicates that the Gradient Boosting model explains 43% of the variability in the dependent variable (VIX) based on the independent variable (VVIX). The closer the R-squared value is to 1, the better the model fits the data. Therefore, a value of 0.43 suggests that the model is not able to capture all the variation in the data and could potentially be improved.</t>
+  </si>
+  <si>
+    <t>The mean squared error (MSE) of 29.74 measures the average of the squared differences between the predicted and actual values of the VIX. A lower MSE indicates better fit between the predicted and actual values. Therefore, a value of 29.74 suggests that the model has some degree of accuracy in predicting the VIX based on the VVIX. However, it is important to keep in mind that the MSE value should be interpreted in the context of the data and problem being addressed, and also in comparison to other models or benchmarks.</t>
+  </si>
+  <si>
+    <t>This code is calculating the average performance of an SVM model for predicting the VIX based on the VVIX using 1000 iterations.</t>
+  </si>
+  <si>
+    <t>First, the code downloads the VIX and VVIX data from Yahoo Finance and merges them into a single dataframe. The data is then preprocessed to remove any missing or infinite values.</t>
+  </si>
+  <si>
+    <t>The code then initializes arrays to store the R-squared and mean squared error metrics for the SVM model's performance. It then loops through the SVM model fitting and evaluation process for 1000 iterations. In each iteration, the code randomly splits the data into training and testing sets, fits an SVM model with an RBF kernel, predicts the VIX values for the test data, and evaluates the model's performance using the R-squared and mean squared error metrics.</t>
+  </si>
+  <si>
+    <t>After all 1000 iterations are complete, the code calculates the average R-squared and mean squared error metrics across all iterations and prints them to the console. This provides an estimate of the SVM model's average performance for predicting the VIX based on the VVIX.</t>
+  </si>
+  <si>
+    <t>Granger causality test is a linear model. It is a statistical hypothesis test that determines whether one time series is useful in forecasting another. The test is based on a linear regression model, where the dependent variable is the time series being predicted and the independent variables are the lagged values of the same time series and the lagged values of the potentially causing time series. The null hypothesis is that the lagged values of the potentially causing time series do not significantly improve the prediction of the dependent variable, while the alternative hypothesis is that they do. Therefore, the test is a linear model that assesses the impact of one time series on another.</t>
+  </si>
+  <si>
+    <t>Average R-squared:  0.3691287703478033</t>
+  </si>
+  <si>
+    <t>Average Mean squared error:  33.308129329717474</t>
+  </si>
+  <si>
+    <t>The average R-squared of 0.37 means that the SVM model explains about 37% of the variability in the VIX prices based on the VVIX prices. This indicates that the model is not very effective at predicting the VIX prices. The average mean squared error (MSE) of 33.31 indicates that the predictions made by the model have an average squared difference of 33.31 from the actual VIX prices. A lower MSE is desirable, as it indicates that the model's predictions are closer to the actual values.</t>
+  </si>
+  <si>
+    <t>R-squared:  0.6341498579649272</t>
+  </si>
+  <si>
+    <t>Mean squared error:  30270.08610190233</t>
+  </si>
+  <si>
+    <t>VIXX</t>
+  </si>
+  <si>
+    <t>VIXX + SPY/XLP</t>
+  </si>
+  <si>
+    <t>Average R-squared:  -1.9037357306875966</t>
+  </si>
+  <si>
+    <t>Average Mean Squared Error:  67.46110267817764</t>
+  </si>
+  <si>
+    <t>Average R-squared:  0.8385978103256386</t>
+  </si>
+  <si>
+    <t>Average Mean Squared Error:  8.37893198266908</t>
+  </si>
+  <si>
+    <t>Average R-squared:  -2.3716986191064033</t>
+  </si>
+  <si>
+    <t>Average Mean Squared Error:  78.3330605259816</t>
+  </si>
+  <si>
+    <t>Average R-squared:  0.6974992845906963</t>
+  </si>
+  <si>
+    <t>Average Mean squared error:  16.302548562677398</t>
+  </si>
+  <si>
+    <t>neural_networks_ReLU (1)</t>
+  </si>
+  <si>
+    <t>Support Vector Machines (SVM) (1)</t>
+  </si>
+  <si>
+    <t>Gradient Boosting (1)</t>
+  </si>
+  <si>
+    <t>Random Forest (2)</t>
+  </si>
+  <si>
+    <t>Linear Regression (2)</t>
+  </si>
+  <si>
+    <t>Bayesian Networks have been used for predicting stock prices, identifying trading strategies, and credit risk assessment.</t>
+  </si>
+  <si>
+    <t>Hidden Markov Models (HMMs) have been used in financial time series modeling and predicting asset prices.</t>
+  </si>
+  <si>
+    <t>R-squared:  0.6619206507719027</t>
+  </si>
+  <si>
+    <t>Mean squared error:  18957.407155266632</t>
+  </si>
+  <si>
+    <t>VIXX + SPY/XLP + GLD/USO</t>
+  </si>
+  <si>
+    <t>Average R-squared:  0.9025357460317085</t>
+  </si>
+  <si>
+    <t>Average Mean Squared Error:  5.070265955556273</t>
+  </si>
+  <si>
+    <t>Average R-squared:  -1.648415423673141</t>
+  </si>
+  <si>
+    <t>Average Mean Squared Error:  61.529368166219356</t>
+  </si>
+  <si>
+    <t>Average R-squared:  -2.975173526231296</t>
+  </si>
+  <si>
+    <t>Average Mean Squared Error:  92.35330425650032</t>
+  </si>
+  <si>
+    <t>Average R-squared:  0.4664525625794886</t>
+  </si>
+  <si>
+    <t>Average Mean squared error:  28.57837032063433</t>
+  </si>
+  <si>
+    <t>R-squared:  0.7512481377415804</t>
+  </si>
+  <si>
+    <t>Mean squared error:  15368.390245648785</t>
+  </si>
+  <si>
+    <t>VIXX + SPY/XLP + GLD/USO + PKW/VYM</t>
+  </si>
+  <si>
+    <t>Average R-squared:  0.90889325487777</t>
+  </si>
+  <si>
+    <t>Average Mean Squared Error:  4.740710158402015</t>
+  </si>
+  <si>
+    <t>Average R-squared:  -1.665111778344365</t>
+  </si>
+  <si>
+    <t>Average Mean Squared Error:  61.917266584427</t>
+  </si>
+  <si>
+    <t>Average R-squared:  -2.936220355881683</t>
+  </si>
+  <si>
+    <t>Average Mean Squared Error:  91.44832389040707</t>
+  </si>
+  <si>
+    <t>Average R-squared:  0.46131742222615185</t>
+  </si>
+  <si>
+    <t>Average Mean squared error:  28.48558912232691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            OLS Regression Results                            </t>
+  </si>
+  <si>
+    <t>==============================================================================</t>
+  </si>
+  <si>
+    <t>Model:                            OLS   Adj. R-squared:                  0.751</t>
+  </si>
+  <si>
+    <t>Date:                Fri, 10 Mar 2023   Prob (F-statistic):               0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covariance Type:            nonrobust                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 coef    std err          t      P&gt;|t|      [0.025      0.975]</t>
+  </si>
+  <si>
+    <t>------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Dep. Variable:                   ^VIX   R-squared:                       0.751</t>
+  </si>
+  <si>
+    <t>Method:                 Least Squares   F-statistic:                     1136.</t>
+  </si>
+  <si>
+    <t>Time:                        15:18:02   Log-Likelihood:                -7180.9</t>
+  </si>
+  <si>
+    <t>No. Observations:                2640   AIC:                         1.438e+04</t>
+  </si>
+  <si>
+    <t>Df Residuals:                    2632   BIC:                         1.442e+04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Df Model:                           7                                         </t>
+  </si>
+  <si>
+    <t>const         21.9633      1.567     14.012      0.000      18.890      25.037</t>
+  </si>
+  <si>
+    <t>^VVIX          0.2712      0.006     46.127      0.000       0.260       0.283</t>
+  </si>
+  <si>
+    <t>SPY            0.1796      0.008     21.457      0.000       0.163       0.196</t>
+  </si>
+  <si>
+    <t>XLP            0.0567      0.038      1.498      0.134      -0.018       0.131</t>
+  </si>
+  <si>
+    <t>GLD            0.0117      0.005      2.250      0.025       0.002       0.022</t>
+  </si>
+  <si>
+    <t>USO           -0.0185      0.002     -8.805      0.000      -0.023      -0.014</t>
+  </si>
+  <si>
+    <t>PKW            0.3270      0.064      5.121      0.000       0.202       0.452</t>
+  </si>
+  <si>
+    <t>VYM           -1.2347      0.048    -25.636      0.000      -1.329      -1.140</t>
+  </si>
+  <si>
+    <t>Omnibus:                     1030.844   Durbin-Watson:                   0.102</t>
+  </si>
+  <si>
+    <t>Prob(Omnibus):                  0.000   Jarque-Bera (JB):             6883.174</t>
+  </si>
+  <si>
+    <t>Skew:                           1.699   Prob(JB):                         0.00</t>
+  </si>
+  <si>
+    <t>Kurtosis:                      10.143   Cond. No.                     7.27e+03</t>
+  </si>
+  <si>
+    <t>[2] The condition number is large, 7.27e+03. This might indicate that there are strong multicollinearity or other numerical problems.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,19 +859,36 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFC000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -493,7 +929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -525,9 +961,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -535,7 +968,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24117,6 +24561,107 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7F04EBC1-2454-44C0-9EBF-647543647B5D}" name="PivotTable13" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A39:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item h="1" x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Low" fld="2" subtotal="average" baseField="3" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DCAF4C2-5E6E-44F2-AD8F-3341A7DA90C2}" name="PivotTable11" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A1:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -24217,7 +24762,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19F01D99-DC77-4AA0-B543-49845AEBA8CA}" name="PivotTable12" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A20:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -24318,207 +24863,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7F04EBC1-2454-44C0-9EBF-647543647B5D}" name="PivotTable13" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A39:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item h="1" x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Low" fld="2" subtotal="average" baseField="3" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5AB6D15B-2CA7-4371-9BBF-744BE156CE6C}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A40:B53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item h="1" x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Low" fld="2" subtotal="average" baseField="3" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4B64EAF-3F64-4F3F-A9C9-180D35303276}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A1:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
@@ -24617,7 +24962,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48E5A58D-7481-44F7-A1D6-367CD9D93780}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A20:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
@@ -24692,6 +25037,105 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Average of High" fld="1" subtotal="average" baseField="3" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5AB6D15B-2CA7-4371-9BBF-744BE156CE6C}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A40:B53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item h="1" x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Low" fld="2" subtotal="average" baseField="3" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="1" format="1" series="1">
@@ -25298,13 +25742,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839F9686-1EB9-4298-9E51-50649C6F04AE}">
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:Q153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="P153" sqref="P153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -25315,15 +25759,15 @@
     <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="19" t="s">
         <v>22</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -25333,11 +25777,11 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P2" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
@@ -25348,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2</v>
       </c>
@@ -25362,10 +25806,10 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>3</v>
       </c>
@@ -25376,10 +25820,10 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>4</v>
       </c>
@@ -25390,7 +25834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>5</v>
       </c>
@@ -25400,11 +25844,11 @@
       <c r="C7" t="b">
         <v>1</v>
       </c>
-      <c r="P7" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P7" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>6</v>
       </c>
@@ -25415,10 +25859,10 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>7</v>
       </c>
@@ -25429,10 +25873,10 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>8</v>
       </c>
@@ -25443,10 +25887,10 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>9</v>
       </c>
@@ -25456,11 +25900,11 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
-      <c r="P11" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P11" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>10</v>
       </c>
@@ -25471,7 +25915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>11</v>
       </c>
@@ -25481,11 +25925,11 @@
       <c r="C13" t="b">
         <v>1</v>
       </c>
-      <c r="P13" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P13" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>12</v>
       </c>
@@ -25496,10 +25940,10 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>13</v>
       </c>
@@ -25510,10 +25954,10 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>14</v>
       </c>
@@ -25524,10 +25968,10 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>15</v>
       </c>
@@ -25537,11 +25981,11 @@
       <c r="C17" t="b">
         <v>1</v>
       </c>
-      <c r="P17" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P17" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>16</v>
       </c>
@@ -25551,9 +25995,9 @@
       <c r="C18" t="b">
         <v>1</v>
       </c>
-      <c r="P18" s="16"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P18" s="15"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>17</v>
       </c>
@@ -25563,11 +26007,11 @@
       <c r="C19" t="b">
         <v>1</v>
       </c>
-      <c r="P19" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P19" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>18</v>
       </c>
@@ -25578,10 +26022,10 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>19</v>
       </c>
@@ -25592,10 +26036,10 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>20</v>
       </c>
@@ -25606,10 +26050,10 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>21</v>
       </c>
@@ -25620,10 +26064,10 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>22</v>
       </c>
@@ -25633,11 +26077,11 @@
       <c r="C24" t="b">
         <v>1</v>
       </c>
-      <c r="P24" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P24" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>23</v>
       </c>
@@ -25648,7 +26092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>24</v>
       </c>
@@ -25659,10 +26103,10 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>25</v>
       </c>
@@ -25673,10 +26117,10 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>26</v>
       </c>
@@ -25687,10 +26131,10 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>27</v>
       </c>
@@ -25700,11 +26144,11 @@
       <c r="C29" t="b">
         <v>1</v>
       </c>
-      <c r="P29" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P29" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>28</v>
       </c>
@@ -25715,7 +26159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>29</v>
       </c>
@@ -25726,7 +26170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>30</v>
       </c>
@@ -25737,7 +26181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="14.4" customHeight="1">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -25745,7 +26189,7 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="14.4" customHeight="1">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -25753,364 +26197,812 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+    <row r="36" spans="1:14" ht="14.4" customHeight="1">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:14" ht="14.4" customHeight="1">
+      <c r="A37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:14" s="24" customFormat="1"/>
+    <row r="39" spans="1:14">
+      <c r="A39" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="N40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B41" t="s">
         <v>26</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C41" t="s">
         <v>27</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D41">
+        <v>0.47</v>
+      </c>
+      <c r="N41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
         <v>28</v>
       </c>
-      <c r="D39">
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="N42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
         <v>31</v>
       </c>
-      <c r="D40">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B43" t="s">
         <v>32</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C43" t="s">
         <v>33</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D43">
+        <v>2337</v>
+      </c>
+      <c r="N43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
         <v>34</v>
       </c>
-      <c r="D41">
-        <v>2337</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B44" t="s">
         <v>35</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C44" t="s">
         <v>36</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D44" t="s">
         <v>37</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
         <v>38</v>
       </c>
-      <c r="E42">
+      <c r="B45" s="13">
+        <v>0.60601851851851851</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45">
+        <v>-8180</v>
+      </c>
+      <c r="N45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>2640</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="11">
+        <v>16360</v>
+      </c>
+      <c r="N46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47">
+        <v>2638</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="11">
+        <v>16380</v>
+      </c>
+      <c r="N47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="N48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="N49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+      <c r="N50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>-13.1442</v>
+      </c>
+      <c r="C51">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D51">
+        <v>-20.382999999999999</v>
+      </c>
+      <c r="E51">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="13">
-        <v>0.60601851851851851</v>
-      </c>
-      <c r="C43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43">
-        <v>-8180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44">
-        <v>2640</v>
-      </c>
-      <c r="C44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="11">
-        <v>16360</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>2638</v>
-      </c>
-      <c r="C45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="11">
-        <v>16380</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" t="s">
-        <v>54</v>
-      </c>
-      <c r="F48" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="F51">
+        <v>-14.409000000000001</v>
+      </c>
+      <c r="G51">
+        <v>-11.88</v>
+      </c>
+      <c r="N51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>-13.1442</v>
-      </c>
-      <c r="C49">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="D49">
-        <v>-20.382999999999999</v>
-      </c>
-      <c r="E49">
+      <c r="B52">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="C52">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D52">
+        <v>48.341000000000001</v>
+      </c>
+      <c r="E52">
         <v>0</v>
       </c>
-      <c r="F49">
-        <v>-14.409000000000001</v>
-      </c>
-      <c r="G49">
-        <v>-11.88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="F52">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="G52">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="N52" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>0.33239999999999997</v>
-      </c>
-      <c r="C50">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D50">
-        <v>48.341000000000001</v>
-      </c>
-      <c r="E50">
+      <c r="B53">
+        <v>587.33299999999997</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
         <v>0</v>
       </c>
-      <c r="F50">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="G50">
-        <v>0.34599999999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51">
-        <v>587.33299999999997</v>
-      </c>
-      <c r="C51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="C54" t="s">
         <v>61</v>
       </c>
-      <c r="B52">
+      <c r="D54">
+        <v>1600.6410000000001</v>
+      </c>
+      <c r="N54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55">
+        <v>1.169</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55">
         <v>0</v>
       </c>
-      <c r="C52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52">
-        <v>1600.6410000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53">
-        <v>1.169</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="N55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" t="s">
         <v>64</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B56">
+        <v>6.0140000000000002</v>
+      </c>
+      <c r="C56" t="s">
         <v>65</v>
       </c>
-      <c r="B54">
-        <v>6.0140000000000002</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D56">
+        <v>579</v>
+      </c>
+      <c r="N56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="N57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="N58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="N59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="N60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="N61" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="N62" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="N63" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="N64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="N65" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="N66" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="N67" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="N69" t="s">
         <v>66</v>
       </c>
-      <c r="D54">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    </row>
+    <row r="70" spans="1:14">
+      <c r="N70" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="71" spans="1:14">
+      <c r="N71" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" t="s">
+        <v>135</v>
+      </c>
+      <c r="I76" t="s">
+        <v>153</v>
+      </c>
+      <c r="N76" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="B77" t="s">
         <v>69</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D77" t="s">
+        <v>132</v>
+      </c>
+      <c r="I77" t="s">
+        <v>151</v>
+      </c>
+      <c r="N77" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78">
+        <v>0.46972822201008102</v>
+      </c>
+      <c r="B78">
+        <v>67265.0803882623</v>
+      </c>
+      <c r="D78" t="s">
+        <v>133</v>
+      </c>
+      <c r="I78" t="s">
+        <v>152</v>
+      </c>
+      <c r="N78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>0.46972822201008102</v>
-      </c>
-      <c r="B60">
-        <v>67265.0803882623</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="82" spans="1:14">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
+    <row r="85" spans="1:14" s="24" customFormat="1"/>
+    <row r="86" spans="1:14">
+      <c r="A86" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" t="s">
+        <v>134</v>
+      </c>
+      <c r="D89" t="s">
+        <v>135</v>
+      </c>
+      <c r="I89" t="s">
+        <v>153</v>
+      </c>
+      <c r="N89" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" t="s">
+        <v>136</v>
+      </c>
+      <c r="I90" t="s">
+        <v>156</v>
+      </c>
+      <c r="N90" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" t="s">
+        <v>119</v>
+      </c>
+      <c r="D91" t="s">
+        <v>137</v>
+      </c>
+      <c r="I91" t="s">
+        <v>157</v>
+      </c>
+      <c r="N91" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
+    <row r="95" spans="1:14">
+      <c r="A95" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="96" spans="1:14">
+      <c r="A96" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" t="s">
+        <v>134</v>
+      </c>
+      <c r="D105" t="s">
+        <v>135</v>
+      </c>
+      <c r="I105" t="s">
+        <v>153</v>
+      </c>
+      <c r="N105" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" t="s">
+        <v>120</v>
+      </c>
+      <c r="D106" t="s">
+        <v>138</v>
+      </c>
+      <c r="I106" t="s">
+        <v>154</v>
+      </c>
+      <c r="N106" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" t="s">
+        <v>121</v>
+      </c>
+      <c r="D107" t="s">
+        <v>139</v>
+      </c>
+      <c r="I107" t="s">
+        <v>155</v>
+      </c>
+      <c r="N107" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" t="s">
+        <v>134</v>
+      </c>
+      <c r="D114" t="s">
+        <v>135</v>
+      </c>
+      <c r="I114" t="s">
+        <v>153</v>
+      </c>
+      <c r="N114" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="D115" t="s">
+        <v>140</v>
+      </c>
+      <c r="I115" t="s">
+        <v>158</v>
+      </c>
+      <c r="N115" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="D116" t="s">
+        <v>141</v>
+      </c>
+      <c r="I116" t="s">
+        <v>159</v>
+      </c>
+      <c r="N116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="119" spans="1:17">
+      <c r="A119" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="21" t="s">
+    <row r="122" spans="1:17">
+      <c r="Q122" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="Q123" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="124" spans="1:17">
+      <c r="Q124" s="15"/>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="Q125" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="126" spans="1:17">
+      <c r="Q126" s="15"/>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="Q127" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="128" spans="1:17">
+      <c r="Q128" s="15"/>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="Q129" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="130" spans="1:17">
+      <c r="Q130" s="15"/>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="Q131" s="23" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="D135" t="s">
+        <v>135</v>
+      </c>
+      <c r="I135" t="s">
+        <v>153</v>
+      </c>
+      <c r="N135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D136" t="s">
+        <v>142</v>
+      </c>
+      <c r="I136" t="s">
+        <v>160</v>
+      </c>
+      <c r="N136" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="A137" t="s">
+        <v>130</v>
+      </c>
+      <c r="D137" t="s">
+        <v>143</v>
+      </c>
+      <c r="I137" t="s">
+        <v>161</v>
+      </c>
+      <c r="N137" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="A141" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="A142" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="A143" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="A144" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="151" spans="16:16">
+      <c r="P151" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="16:16">
+      <c r="P153" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -26124,17 +27016,17 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
@@ -26148,7 +27040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -26165,7 +27057,7 @@
         <v>0.42319366138986592</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -26182,7 +27074,7 @@
         <v>-6.1301364422558478E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -26199,7 +27091,7 @@
         <v>0.57088178928289934</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -26216,12 +27108,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -26235,7 +27127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -26252,7 +27144,7 @@
         <v>-6.9914369000997123E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -26269,7 +27161,7 @@
         <v>0.41117254065051728</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -26286,7 +27178,7 @@
         <v>0.57949654654426597</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -26328,7 +27220,7 @@
       <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26342,12 +27234,12 @@
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26367,7 +27259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>78.41631598221629</v>
       </c>
@@ -26388,7 +27280,7 @@
         <v>40179</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>82.657369111713606</v>
       </c>
@@ -26409,7 +27301,7 @@
         <v>40575</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>75.762608735457704</v>
       </c>
@@ -26430,7 +27322,7 @@
         <v>40969</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>84.940000261579243</v>
       </c>
@@ -26451,7 +27343,7 @@
         <v>41365</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>119.7269996643066</v>
       </c>
@@ -26472,7 +27364,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>100.7290912974965</v>
       </c>
@@ -26493,7 +27385,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>94.056667146228605</v>
       </c>
@@ -26514,7 +27406,7 @@
         <v>42552</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>88.898181568492546</v>
       </c>
@@ -26535,7 +27427,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>83.742380777994796</v>
       </c>
@@ -26556,7 +27448,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>84.131428673153835</v>
       </c>
@@ -26577,7 +27469,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>83.251500320434573</v>
       </c>
@@ -26598,7 +27490,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>84.480908480557531</v>
       </c>
@@ -26619,7 +27511,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>82.417500305175778</v>
       </c>
@@ -26640,7 +27532,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>85.218421534488073</v>
       </c>
@@ -26661,7 +27553,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>87.65086928657864</v>
       </c>
@@ -26682,7 +27574,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>84.694500732421872</v>
       </c>
@@ -26703,7 +27595,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>89.921905154273617</v>
       </c>
@@ -26724,7 +27616,7 @@
         <v>46143</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>91.154090881347656</v>
       </c>
@@ -26745,7 +27637,7 @@
         <v>46539</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>89.708999633789063</v>
       </c>
@@ -26766,7 +27658,7 @@
         <v>46935</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>109.81652334462041</v>
       </c>
@@ -26787,7 +27679,7 @@
         <v>47331</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>97.889047895159038</v>
       </c>
@@ -26808,7 +27700,7 @@
         <v>47727</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>97.124285743350072</v>
       </c>
@@ -26829,7 +27721,7 @@
         <v>48122</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>105.01380993071059</v>
       </c>
@@ -26850,7 +27742,7 @@
         <v>48519</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>91.881427946544832</v>
       </c>
@@ -26871,7 +27763,7 @@
         <v>48914</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>89.491500473022455</v>
       </c>
@@ -26892,7 +27784,7 @@
         <v>48945</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>98.684999847412115</v>
       </c>
@@ -26913,7 +27805,7 @@
         <v>49341</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>101.5927273143422</v>
       </c>
@@ -26934,7 +27826,7 @@
         <v>49735</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>101.5845001220703</v>
       </c>
@@ -26955,7 +27847,7 @@
         <v>50131</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>102.02681870894</v>
       </c>
@@ -26976,7 +27868,7 @@
         <v>50526</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>102.0338098435175</v>
       </c>
@@ -26997,7 +27889,7 @@
         <v>50922</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>95.435713995070685</v>
       </c>
@@ -27018,7 +27910,7 @@
         <v>51318</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>92.451739767323375</v>
       </c>
@@ -27039,7 +27931,7 @@
         <v>51714</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>90.02421007658306</v>
       </c>
@@ -27060,7 +27952,7 @@
         <v>52110</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>90.300000145321803</v>
       </c>
@@ -27081,7 +27973,7 @@
         <v>52505</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>87.378570193336117</v>
       </c>
@@ -27102,7 +27994,7 @@
         <v>52902</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>85.981499099731451</v>
       </c>
@@ -27126,7 +28018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>76.707618350074398</v>
       </c>
@@ -27147,7 +28039,7 @@
         <v>53328</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>78.232105455900495</v>
       </c>
@@ -27168,7 +28060,7 @@
         <v>53724</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>84.904499816894528</v>
       </c>
@@ -27189,7 +28081,7 @@
         <v>54118</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>87.79045521129261</v>
       </c>
@@ -27210,7 +28102,7 @@
         <v>54514</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>83.065909298983485</v>
       </c>
@@ -27231,7 +28123,7 @@
         <v>54909</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>91.74300041198731</v>
       </c>
@@ -27252,7 +28144,7 @@
         <v>55305</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>77.14136366410689</v>
       </c>
@@ -27273,7 +28165,7 @@
         <v>55701</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>82.097726648504079</v>
       </c>
@@ -27294,7 +28186,7 @@
         <v>56097</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>79.469000244140631</v>
       </c>
@@ -27315,7 +28207,7 @@
         <v>56493</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>83.434782276982844</v>
       </c>
@@ -27336,7 +28228,7 @@
         <v>56888</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>68.726999855041498</v>
       </c>
@@ -27357,7 +28249,7 @@
         <v>57285</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>72.215713864281071</v>
       </c>
@@ -27378,7 +28270,7 @@
         <v>57680</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>78.030952453613281</v>
       </c>
@@ -27399,7 +28291,7 @@
         <v>57711</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>83.933684098093138</v>
       </c>
@@ -27420,7 +28312,7 @@
         <v>58107</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>81.67095147995721</v>
       </c>
@@ -27441,7 +28333,7 @@
         <v>58501</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>71.103333609444761</v>
       </c>
@@ -27462,7 +28354,7 @@
         <v>58897</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>65.849046979631694</v>
       </c>
@@ -27483,7 +28375,7 @@
         <v>59292</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>72.77238137381417</v>
       </c>
@@ -27504,7 +28396,7 @@
         <v>59688</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>78.512273268266156</v>
       </c>
@@ -27525,7 +28417,7 @@
         <v>60084</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>85.419047401064915</v>
       </c>
@@ -27546,7 +28438,7 @@
         <v>60480</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>85.012380690801706</v>
       </c>
@@ -27567,7 +28459,7 @@
         <v>60876</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>104.82173853335171</v>
       </c>
@@ -27588,7 +28480,7 @@
         <v>61271</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>82.737894560161394</v>
       </c>
@@ -27609,7 +28501,7 @@
         <v>61668</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>103.497727134011</v>
       </c>
@@ -27630,7 +28522,7 @@
         <v>62063</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>106.29700050354</v>
       </c>
@@ -27651,7 +28543,7 @@
         <v>62094</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>93.747894287109375</v>
       </c>
@@ -27672,7 +28564,7 @@
         <v>62490</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>85.536364121870562</v>
       </c>
@@ -27693,7 +28585,7 @@
         <v>62884</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>81.143810090564543</v>
       </c>
@@ -27714,7 +28606,7 @@
         <v>63280</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>80.974999618530276</v>
       </c>
@@ -27735,7 +28627,7 @@
         <v>63675</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>87.910454143177375</v>
       </c>
@@ -27756,7 +28648,7 @@
         <v>64071</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>91.641362970525563</v>
       </c>
@@ -27777,7 +28669,7 @@
         <v>64467</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>104.4028563726516</v>
       </c>
@@ -27798,7 +28690,7 @@
         <v>64863</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>115.2061905633836</v>
       </c>
@@ -27819,7 +28711,7 @@
         <v>65259</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>94.56227181174539</v>
       </c>
@@ -27840,7 +28732,7 @@
         <v>65654</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>91.636499786376959</v>
       </c>
@@ -27861,7 +28753,7 @@
         <v>66051</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>104.8190914500843</v>
       </c>
@@ -27882,7 +28774,7 @@
         <v>66446</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>106.5863149542558</v>
       </c>
@@ -27903,7 +28795,7 @@
         <v>66477</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>93.820499801635748</v>
       </c>
@@ -27924,7 +28816,7 @@
         <v>66873</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>85.263635808771312</v>
       </c>
@@ -27945,7 +28837,7 @@
         <v>67267</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>87.473809015183221</v>
       </c>
@@ -27966,7 +28858,7 @@
         <v>67663</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>86.955714634486611</v>
       </c>
@@ -27987,7 +28879,7 @@
         <v>68058</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>102.8372733376243</v>
       </c>
@@ -28008,7 +28900,7 @@
         <v>68454</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>88.847999191284174</v>
       </c>
@@ -28029,7 +28921,7 @@
         <v>68850</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>87.552608987559438</v>
       </c>
@@ -28050,7 +28942,7 @@
         <v>69246</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>95.015237717401419</v>
       </c>
@@ -28071,7 +28963,7 @@
         <v>69642</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>93.53095281691779</v>
       </c>
@@ -28092,7 +28984,7 @@
         <v>70037</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>96.227142333984375</v>
       </c>
@@ -28113,7 +29005,7 @@
         <v>70434</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>91.030000595819388</v>
       </c>
@@ -28134,7 +29026,7 @@
         <v>70829</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>85.337000274658209</v>
       </c>
@@ -28155,7 +29047,7 @@
         <v>70860</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>85.289473282663451</v>
       </c>
@@ -28176,7 +29068,7 @@
         <v>71256</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>81.833043637483016</v>
       </c>
@@ -28197,7 +29089,7 @@
         <v>71650</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>90.751052053351145</v>
       </c>
@@ -28218,7 +29110,7 @@
         <v>72046</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>84.458636543967501</v>
       </c>
@@ -28239,7 +29131,7 @@
         <v>72441</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>87.159091255881563</v>
       </c>
@@ -28260,7 +29152,7 @@
         <v>72837</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>85.202999877929685</v>
       </c>
@@ -28281,7 +29173,7 @@
         <v>73232</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>100.2956523065982</v>
       </c>
@@ -28302,7 +29194,7 @@
         <v>73628</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>94.197500228881836</v>
       </c>
@@ -28323,7 +29215,7 @@
         <v>74024</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>95.772727619517937</v>
       </c>
@@ -28344,7 +29236,7 @@
         <v>74419</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>94.275714692615324</v>
       </c>
@@ -28365,7 +29257,7 @@
         <v>74816</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>95.121999359130854</v>
       </c>
@@ -28386,7 +29278,7 @@
         <v>75211</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>99.55714234851655</v>
       </c>
@@ -28407,7 +29299,7 @@
         <v>75242</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>134.04473676179589</v>
       </c>
@@ -28428,7 +29320,7 @@
         <v>75638</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>110.5700000581287</v>
       </c>
@@ -28449,7 +29341,7 @@
         <v>76032</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>96.805714198521201</v>
       </c>
@@ -28470,7 +29362,7 @@
         <v>76428</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>93.592727661132813</v>
       </c>
@@ -28491,7 +29383,7 @@
         <v>76823</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>99.946666535877043</v>
       </c>
@@ -28512,7 +29404,7 @@
         <v>77219</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>99.224286033993678</v>
       </c>
@@ -28533,7 +29425,7 @@
         <v>77615</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>95.247825290845782</v>
       </c>
@@ -28554,7 +29446,7 @@
         <v>78011</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>93.354209899902344</v>
       </c>
@@ -28575,7 +29467,7 @@
         <v>78407</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>109.31130450704821</v>
       </c>
@@ -28596,7 +29488,7 @@
         <v>78802</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>100.489999680292</v>
       </c>
@@ -28617,7 +29509,7 @@
         <v>79199</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>97.112105118600951</v>
       </c>
@@ -28638,7 +29530,7 @@
         <v>79594</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>84.301428295317152</v>
       </c>
@@ -28659,7 +29551,7 @@
         <v>79625</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>80.186315034565169</v>
       </c>
@@ -28680,7 +29572,7 @@
         <v>80021</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>86.319998604910708</v>
       </c>
@@ -28701,7 +29593,7 @@
         <v>80415</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>84.736666724795384</v>
       </c>
@@ -28722,7 +29614,7 @@
         <v>80811</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>96.346819097345531</v>
       </c>
@@ -28743,7 +29635,7 @@
         <v>81206</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>85.56450004577637</v>
       </c>
@@ -28764,7 +29656,7 @@
         <v>81602</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>85.107619149344302</v>
       </c>
@@ -28785,7 +29677,7 @@
         <v>81998</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>105.1840907010165</v>
       </c>
@@ -28806,7 +29698,7 @@
         <v>82394</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>98.730000305175778</v>
       </c>
@@ -28827,7 +29719,7 @@
         <v>82790</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>93.29999973462975</v>
       </c>
@@ -28848,7 +29740,7 @@
         <v>83185</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>91.579499053955075</v>
       </c>
@@ -28869,7 +29761,7 @@
         <v>83582</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>98.997142610095793</v>
       </c>
@@ -28890,7 +29782,7 @@
         <v>83977</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>93.709047953287765</v>
       </c>
@@ -28911,7 +29803,7 @@
         <v>84008</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>103.23736853348581</v>
       </c>
@@ -28932,7 +29824,7 @@
         <v>84404</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>157.0163636641069</v>
       </c>
@@ -28953,7 +29845,7 @@
         <v>84798</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>131.94095175606861</v>
       </c>
@@ -28974,7 +29866,7 @@
         <v>85194</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>121.25950050354</v>
       </c>
@@ -28995,7 +29887,7 @@
         <v>85589</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>124.9285721551804</v>
       </c>
@@ -29016,7 +29908,7 @@
         <v>85985</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>114.9531818736683</v>
       </c>
@@ -29037,7 +29929,7 @@
         <v>86381</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>111.408570425851</v>
       </c>
@@ -29058,7 +29950,7 @@
         <v>86777</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>110.7195242018927</v>
       </c>
@@ -29079,7 +29971,7 @@
         <v>87173</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>118.64681868119671</v>
       </c>
@@ -29100,7 +29992,7 @@
         <v>87568</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>116.31849975585941</v>
       </c>
@@ -29121,7 +30013,7 @@
         <v>87965</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>113.3468180569735</v>
       </c>
@@ -29142,7 +30034,7 @@
         <v>88360</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>121.77944437662759</v>
       </c>
@@ -29163,7 +30055,7 @@
         <v>88391</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>116.4199998643663</v>
       </c>
@@ -29184,7 +30076,7 @@
         <v>88787</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>111.7034789375637</v>
       </c>
@@ -29205,7 +30097,7 @@
         <v>89181</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>105.52523876371841</v>
       </c>
@@ -29226,7 +30118,7 @@
         <v>89577</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>117.10187435150149</v>
       </c>
@@ -29247,7 +30139,7 @@
         <v>89972</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>114.2222740866921</v>
       </c>
@@ -29268,7 +30160,7 @@
         <v>90368</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>118.0176188151042</v>
       </c>
@@ -29289,7 +30181,7 @@
         <v>90764</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>116.160454489968</v>
       </c>
@@ -29310,7 +30202,7 @@
         <v>91160</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>115.75523812430249</v>
       </c>
@@ -29331,7 +30223,7 @@
         <v>91556</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>107.2938094366164</v>
       </c>
@@ -29352,7 +30244,7 @@
         <v>91951</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>115.2542873564221</v>
       </c>
@@ -29373,7 +30265,7 @@
         <v>92348</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>125.92909102006389</v>
       </c>
@@ -29394,7 +30286,7 @@
         <v>92743</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>127.1800006866455</v>
       </c>
@@ -29415,7 +30307,7 @@
         <v>92774</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>126.9663166246916</v>
       </c>
@@ -29436,7 +30328,7 @@
         <v>93170</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>118.0630440090014</v>
       </c>
@@ -29457,7 +30349,7 @@
         <v>93564</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>115.1120002746582</v>
       </c>
@@ -29478,7 +30370,7 @@
         <v>93960</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>110.4423817225865</v>
       </c>
@@ -29499,7 +30391,7 @@
         <v>94355</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>97.44190506708054</v>
       </c>
@@ -29520,7 +30412,7 @@
         <v>94751</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>86.319499969482422</v>
       </c>
@@ -29541,7 +30433,7 @@
         <v>95147</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>88.462608337402344</v>
       </c>
@@ -29562,7 +30454,7 @@
         <v>95543</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>94.858571733747212</v>
       </c>
@@ -29583,7 +30475,7 @@
         <v>95939</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>93.46047719319661</v>
       </c>
@@ -29604,7 +30496,7 @@
         <v>96334</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>82.509523300897513</v>
       </c>
@@ -29625,7 +30517,7 @@
         <v>96731</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>84.117619469052272</v>
       </c>
@@ -29646,7 +30538,7 @@
         <v>97126</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>80.353499221801755</v>
       </c>
@@ -29667,7 +30559,7 @@
         <v>97157</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>88.0799994217722</v>
       </c>
@@ -29688,7 +30580,7 @@
         <v>97553</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>77.75400085449219</v>
       </c>
@@ -29723,13 +30615,13 @@
       <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -29744,7 +30636,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -29759,7 +30651,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -29767,7 +30659,7 @@
         <v>96.465655975692371</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -29775,7 +30667,7 @@
         <v>96.117256166397055</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -29783,7 +30675,7 @@
         <v>94.123233293359192</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -29791,7 +30683,7 @@
         <v>96.286410303017405</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -29799,7 +30691,7 @@
         <v>96.803316187342546</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -29807,7 +30699,7 @@
         <v>92.628429660676446</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -29815,7 +30707,7 @@
         <v>97.492145049376788</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -29823,7 +30715,7 @@
         <v>96.459499419951271</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -29831,7 +30723,7 @@
         <v>97.360815167156062</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -29839,7 +30731,7 @@
         <v>93.492303140006698</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -29847,7 +30739,7 @@
         <v>96.040857246534387</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -29855,7 +30747,7 @@
         <v>95.567651944933786</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -29863,7 +30755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -29871,7 +30763,7 @@
         <v>111.77071435110909</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -29879,7 +30771,7 @@
         <v>117.76785714285714</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="4">
         <v>3</v>
       </c>
@@ -29887,7 +30779,7 @@
         <v>114.47785568237305</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="4">
         <v>4</v>
       </c>
@@ -29895,7 +30787,7 @@
         <v>108.82077026367188</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="4">
         <v>5</v>
       </c>
@@ -29903,7 +30795,7 @@
         <v>114.37230741060696</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="4">
         <v>6</v>
       </c>
@@ -29911,7 +30803,7 @@
         <v>116.3484608576848</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" s="4">
         <v>7</v>
       </c>
@@ -29919,7 +30811,7 @@
         <v>107.4407700758714</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" s="4">
         <v>8</v>
       </c>
@@ -29927,7 +30819,7 @@
         <v>120.71538543701172</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" s="4">
         <v>9</v>
       </c>
@@ -29935,7 +30827,7 @@
         <v>111.63769296499399</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" s="4">
         <v>10</v>
       </c>
@@ -29943,7 +30835,7 @@
         <v>116.06077047494742</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" s="4">
         <v>11</v>
       </c>
@@ -29951,7 +30843,7 @@
         <v>109.82076850304237</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="4">
         <v>12</v>
       </c>
@@ -29959,7 +30851,7 @@
         <v>113.46538426325871</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>5</v>
       </c>
@@ -29967,7 +30859,7 @@
         <v>113.57924536938937</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -29975,7 +30867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" s="4">
         <v>1</v>
       </c>
@@ -29983,7 +30875,7 @@
         <v>83.317143031529014</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" s="4">
         <v>2</v>
       </c>
@@ -29991,7 +30883,7 @@
         <v>84.713570731026792</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" s="4">
         <v>3</v>
       </c>
@@ -29999,7 +30891,7 @@
         <v>84.230713980538511</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" s="4">
         <v>4</v>
       </c>
@@ -30007,7 +30899,7 @@
         <v>84.634614797738877</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" s="4">
         <v>5</v>
       </c>
@@ -30015,7 +30907,7 @@
         <v>84.73692233745868</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" s="4">
         <v>6</v>
       </c>
@@ -30023,7 +30915,7 @@
         <v>85.1484615619366</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" s="4">
         <v>7</v>
       </c>
@@ -30031,7 +30923,7 @@
         <v>83.015384967510514</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" s="4">
         <v>8</v>
       </c>
@@ -30039,7 +30931,7 @@
         <v>85.240000798152039</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" s="4">
         <v>9</v>
       </c>
@@ -30047,7 +30939,7 @@
         <v>86.163845942570617</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" s="4">
         <v>10</v>
       </c>
@@ -30055,7 +30947,7 @@
         <v>85.517691979041473</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" s="4">
         <v>11</v>
       </c>
@@ -30063,7 +30955,7 @@
         <v>83.428461221548233</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" s="4">
         <v>12</v>
       </c>
@@ -30071,7 +30963,7 @@
         <v>85.533076946551986</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
         <v>5</v>
       </c>
@@ -30093,12 +30985,12 @@
       <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30118,7 +31010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>23.10263151871531</v>
       </c>
@@ -30139,7 +31031,7 @@
         <v>40179</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>24.376315769396331</v>
       </c>
@@ -30160,7 +31052,7 @@
         <v>40210</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>19.929565015046489</v>
       </c>
@@ -30181,7 +31073,7 @@
         <v>40238</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>18.518095198131739</v>
       </c>
@@ -30202,7 +31094,7 @@
         <v>40269</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>25.148999786376951</v>
       </c>
@@ -30223,7 +31115,7 @@
         <v>40299</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>22.697727376764469</v>
       </c>
@@ -30244,7 +31136,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>20.562857219151091</v>
       </c>
@@ -30265,7 +31157,7 @@
         <v>40360</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>18.44909113103693</v>
       </c>
@@ -30286,7 +31178,7 @@
         <v>40391</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>17.848571323213118</v>
       </c>
@@ -30307,7 +31199,7 @@
         <v>40422</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>20.48809514726911</v>
       </c>
@@ -30328,7 +31220,7 @@
         <v>40452</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>21.813333238874161</v>
       </c>
@@ -30349,7 +31241,7 @@
         <v>40483</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>18.761818192221899</v>
       </c>
@@ -30370,7 +31262,7 @@
         <v>40513</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>18.496500015258789</v>
       </c>
@@ -30391,7 +31283,7 @@
         <v>40544</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>16.27052628366571</v>
       </c>
@@ -30412,7 +31304,7 @@
         <v>40575</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>17.41869569861371</v>
       </c>
@@ -30433,7 +31325,7 @@
         <v>40603</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16.444499778747559</v>
       </c>
@@ -30454,7 +31346,7 @@
         <v>40634</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>18.89047613598051</v>
       </c>
@@ -30475,7 +31367,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>16.782727371562611</v>
       </c>
@@ -30496,7 +31388,7 @@
         <v>40695</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>17.39349980354309</v>
       </c>
@@ -30517,7 +31409,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>28.066086727639899</v>
       </c>
@@ -30538,7 +31430,7 @@
         <v>40756</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>33.770952406383699</v>
       </c>
@@ -30559,7 +31451,7 @@
         <v>40787</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>30.724762053716749</v>
       </c>
@@ -30580,7 +31472,7 @@
         <v>40817</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>27.898571468534929</v>
       </c>
@@ -30601,7 +31493,7 @@
         <v>40848</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>23.611904598417741</v>
       </c>
@@ -30622,7 +31514,7 @@
         <v>40878</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>21.329499912261959</v>
       </c>
@@ -30643,7 +31535,7 @@
         <v>40909</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>20.135000228881839</v>
       </c>
@@ -30664,7 +31556,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>18.865454500371762</v>
       </c>
@@ -30685,7 +31577,7 @@
         <v>40969</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>17.97000007629395</v>
       </c>
@@ -30706,7 +31598,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>19.993636391379621</v>
       </c>
@@ -30727,7 +31619,7 @@
         <v>41030</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>22.00952366420201</v>
       </c>
@@ -30748,7 +31640,7 @@
         <v>41061</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>19.101428713117329</v>
       </c>
@@ -30769,7 +31661,7 @@
         <v>41091</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>16.433912982111391</v>
       </c>
@@ -30790,7 +31682,7 @@
         <v>41122</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>17.917368537501289</v>
       </c>
@@ -30811,7 +31703,7 @@
         <v>41153</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>15.623809541974749</v>
       </c>
@@ -30832,7 +31724,7 @@
         <v>41183</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>14.80619049072266</v>
       </c>
@@ -30853,7 +31745,7 @@
         <v>41214</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>13.780999946594241</v>
       </c>
@@ -30874,7 +31766,7 @@
         <v>41244</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>13.7476190839495</v>
       </c>
@@ -30895,7 +31787,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>15.05999991768285</v>
       </c>
@@ -30916,7 +31808,7 @@
         <v>41306</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>13.529500055313109</v>
       </c>
@@ -30937,7 +31829,7 @@
         <v>41334</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>20.577727317810059</v>
       </c>
@@ -30958,7 +31850,7 @@
         <v>41365</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>24.170454718849879</v>
       </c>
@@ -30979,7 +31871,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>24.905500221252439</v>
       </c>
@@ -31000,7 +31892,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>24.255000201138579</v>
       </c>
@@ -31021,7 +31913,7 @@
         <v>41456</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>23.244090860540219</v>
       </c>
@@ -31042,7 +31934,7 @@
         <v>41487</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>23.477000141143801</v>
       </c>
@@ -31063,7 +31955,7 @@
         <v>41518</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>23.163913063381031</v>
       </c>
@@ -31084,7 +31976,7 @@
         <v>41548</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>20.03400020599365</v>
       </c>
@@ -31105,7 +31997,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>20.970476241338819</v>
       </c>
@@ -31126,7 +32018,7 @@
         <v>41609</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>17.570952506292439</v>
       </c>
@@ -31147,7 +32039,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>16.72894718772487</v>
       </c>
@@ -31168,7 +32060,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>17.019047600882391</v>
       </c>
@@ -31189,7 +32081,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>15.75523812430245</v>
       </c>
@@ -31210,7 +32102,7 @@
         <v>41730</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>14.719047546386721</v>
       </c>
@@ -31231,7 +32123,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>13.24904764266241</v>
       </c>
@@ -31252,7 +32144,7 @@
         <v>41791</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>14.157727284864951</v>
       </c>
@@ -31273,7 +32165,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>13.747142927987239</v>
       </c>
@@ -31294,7 +32186,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>16.16761902400426</v>
       </c>
@@ -31315,7 +32207,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>17.883913123089339</v>
       </c>
@@ -31336,7 +32228,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>22.130526291696651</v>
       </c>
@@ -31357,7 +32249,7 @@
         <v>41944</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>20.09772742878307</v>
       </c>
@@ -31378,7 +32270,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>20.28000011444092</v>
       </c>
@@ -31399,7 +32291,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>19.193684126201429</v>
       </c>
@@ -31420,7 +32312,7 @@
         <v>42036</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>17.638636155561969</v>
       </c>
@@ -31441,7 +32333,7 @@
         <v>42064</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>15.447142918904619</v>
       </c>
@@ -31462,7 +32354,7 @@
         <v>42095</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>15.804000043869021</v>
       </c>
@@ -31483,7 +32375,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>14.339545466683131</v>
       </c>
@@ -31504,7 +32396,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>16.49590899727561</v>
       </c>
@@ -31525,7 +32417,7 @@
         <v>42186</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>17.54714289165678</v>
       </c>
@@ -31546,7 +32438,7 @@
         <v>42217</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>17.839047386532741</v>
       </c>
@@ -31567,7 +32459,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>16.531363660638981</v>
       </c>
@@ -31588,7 +32480,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>17.674000024795529</v>
       </c>
@@ -31609,7 +32501,7 @@
         <v>42309</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>16.286818157542839</v>
       </c>
@@ -31630,7 +32522,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>16.51947357780055</v>
       </c>
@@ -31651,7 +32543,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>22.161500072479249</v>
       </c>
@@ -31672,7 +32564,7 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>20.249545444141731</v>
       </c>
@@ -31693,7 +32585,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>18.00333322797503</v>
       </c>
@@ -31714,7 +32606,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>17.68571435837519</v>
       </c>
@@ -31735,7 +32627,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>19.890454812483359</v>
       </c>
@@ -31756,7 +32648,7 @@
         <v>42522</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>17.90350003242493</v>
       </c>
@@ -31777,7 +32669,7 @@
         <v>42552</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>15.73347825589387</v>
       </c>
@@ -31798,7 +32690,7 @@
         <v>42583</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>14.90428556714739</v>
       </c>
@@ -31819,7 +32711,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>15.33619045075916</v>
       </c>
@@ -31840,7 +32732,7 @@
         <v>42644</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>18.229047729855491</v>
       </c>
@@ -31861,7 +32753,7 @@
         <v>42675</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>16.95619033631824</v>
       </c>
@@ -31882,7 +32774,7 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>14.902999973297121</v>
       </c>
@@ -31903,7 +32795,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>14.38578951986212</v>
       </c>
@@ -31924,7 +32816,7 @@
         <v>42767</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>12.436956530031949</v>
       </c>
@@ -31945,7 +32837,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>13.78368427878932</v>
       </c>
@@ -31966,7 +32858,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>11.908636309883811</v>
       </c>
@@ -31987,7 +32879,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>11.676818110726099</v>
       </c>
@@ -32008,7 +32900,7 @@
         <v>42887</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>11.58550004959107</v>
       </c>
@@ -32029,7 +32921,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>12.407826091932209</v>
       </c>
@@ -32050,7 +32942,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>12.79849996566772</v>
       </c>
@@ -32071,7 +32963,7 @@
         <v>42979</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>11.74999995665117</v>
       </c>
@@ -32092,7 +32984,7 @@
         <v>43009</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>11.147619020371209</v>
       </c>
@@ -32113,7 +33005,7 @@
         <v>43040</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>10.93450002670288</v>
       </c>
@@ -32134,7 +33026,7 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>12.016190528869631</v>
       </c>
@@ -32155,7 +33047,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>13.585263202064921</v>
       </c>
@@ -32176,7 +33068,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>11.48190471104213</v>
       </c>
@@ -32197,7 +33089,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>12.42285710289365</v>
       </c>
@@ -32218,7 +33110,7 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>11.333636370572179</v>
       </c>
@@ -32239,7 +33131,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>10.64952382587251</v>
       </c>
@@ -32260,7 +33152,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>11.431904701959519</v>
       </c>
@@ -32281,7 +33173,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>11.66826090605363</v>
       </c>
@@ -32302,7 +33194,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>11.017894795066431</v>
       </c>
@@ -32323,7 +33215,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>12.22608694822892</v>
       </c>
@@ -32344,7 +33236,7 @@
         <v>43374</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>12.03571433112735</v>
       </c>
@@ -32365,7 +33257,7 @@
         <v>43405</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>12.362105319374489</v>
       </c>
@@ -32386,7 +33278,7 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>11.31952381134033</v>
       </c>
@@ -32407,7 +33299,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>10.06368431292082</v>
       </c>
@@ -32428,7 +33320,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>10.190952391851519</v>
       </c>
@@ -32449,7 +33341,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>9.5461904434930709</v>
       </c>
@@ -32470,7 +33362,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>9.3927272449840196</v>
       </c>
@@ -32491,7 +33383,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>13.10599989891052</v>
       </c>
@@ -32512,7 +33404,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>14.54454552043568</v>
       </c>
@@ -32533,7 +33425,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>16.77681823210283</v>
       </c>
@@ -32554,7 +33446,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>15.657000017166141</v>
       </c>
@@ -32575,7 +33467,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>14.75260858950408</v>
       </c>
@@ -32596,7 +33488,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>11.70050001144409</v>
       </c>
@@ -32617,7 +33509,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>11.122380983261831</v>
       </c>
@@ -32638,7 +33530,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>12.312857128324961</v>
       </c>
@@ -32659,7 +33551,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>13.85473672967208</v>
       </c>
@@ -32680,7 +33572,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>32.854545593261719</v>
       </c>
@@ -32701,7 +33593,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>29.005238033476331</v>
       </c>
@@ -32722,7 +33614,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>22.05899982452393</v>
       </c>
@@ -32743,7 +33635,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>19.366363612088289</v>
       </c>
@@ -32764,7 +33656,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>19.51545459573919</v>
       </c>
@@ -32785,7 +33677,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>25.263333275204609</v>
       </c>
@@ -32806,7 +33698,7 @@
         <v>44044</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>21.849523816789901</v>
       </c>
@@ -32827,7 +33719,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>21.985909115184441</v>
       </c>
@@ -32848,7 +33740,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>19.781499862670898</v>
       </c>
@@ -32869,7 +33761,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>19.654091141440649</v>
       </c>
@@ -32890,7 +33782,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>19.79999993976794</v>
       </c>
@@ -32911,7 +33803,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>19.29894738448294</v>
       </c>
@@ -32932,7 +33824,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>18.232608587845512</v>
       </c>
@@ -32953,7 +33845,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>15.533809525626051</v>
       </c>
@@ -32974,7 +33866,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>16.763499975204471</v>
       </c>
@@ -32995,7 +33887,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>16.0613635670055</v>
       </c>
@@ -33016,7 +33908,7 @@
         <v>44348</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>15.178571473984491</v>
       </c>
@@ -33037,7 +33929,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>15.701818249442359</v>
       </c>
@@ -33058,7 +33950,7 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>15.86571434565953</v>
       </c>
@@ -33079,7 +33971,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>15.829523858569919</v>
       </c>
@@ -33100,7 +33992,7 @@
         <v>44470</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>16.755714189438589</v>
       </c>
@@ -33121,7 +34013,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>15.98727282610807</v>
       </c>
@@ -33142,7 +34034,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>15.74799995422363</v>
       </c>
@@ -33163,7 +34055,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>17.43315802122417</v>
       </c>
@@ -33184,7 +34076,7 @@
         <v>44593</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>23.87086967799975</v>
       </c>
@@ -33205,7 +34097,7 @@
         <v>44621</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>18.838499832153321</v>
       </c>
@@ -33226,7 +34118,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>19.529523667835051</v>
       </c>
@@ -33247,7 +34139,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>18.272381010509669</v>
       </c>
@@ -33268,7 +34160,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>19.072499847412111</v>
       </c>
@@ -33289,7 +34181,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>16.162608893021289</v>
       </c>
@@ -33310,7 +34202,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>18.103809583754771</v>
       </c>
@@ -33331,7 +34223,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>19.511428560529431</v>
       </c>
@@ -33352,7 +34244,7 @@
         <v>44835</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>17.14000011625744</v>
       </c>
@@ -33373,7 +34265,7 @@
         <v>44866</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>15.43666671571278</v>
       </c>
@@ -33394,7 +34286,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>16.321000146865849</v>
       </c>
@@ -33415,7 +34307,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>15.090000102394511</v>
       </c>
@@ -33436,7 +34328,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>14.0939998626709</v>
       </c>
@@ -33468,13 +34360,13 @@
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -33487,7 +34379,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -33500,7 +34392,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -33508,7 +34400,7 @@
         <v>16.974110918475272</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -33516,7 +34408,7 @@
         <v>17.700877273188187</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -33524,7 +34416,7 @@
         <v>17.065101219892089</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -33532,7 +34424,7 @@
         <v>17.492257874940101</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -33540,7 +34432,7 @@
         <v>17.154382813901769</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -33548,7 +34440,7 @@
         <v>17.015261418510587</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -33556,7 +34448,7 @@
         <v>17.784739340355635</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -33564,7 +34456,7 @@
         <v>18.247483608463909</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -33572,7 +34464,7 @@
         <v>18.139046466884391</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -33580,7 +34472,7 @@
         <v>17.780516690906357</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -33588,7 +34480,7 @@
         <v>16.612534762601349</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -33596,7 +34488,7 @@
         <v>17.381788034268105</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -33604,7 +34496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -33612,7 +34504,7 @@
         <v>19.837142944335938</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -33620,7 +34512,7 @@
         <v>21.368571417672293</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="4">
         <v>3</v>
       </c>
@@ -33628,7 +34520,7 @@
         <v>23.528571196964808</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="4">
         <v>4</v>
       </c>
@@ -33636,7 +34528,7 @@
         <v>21.866922965416542</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="4">
         <v>5</v>
       </c>
@@ -33644,7 +34536,7 @@
         <v>21.413076914273777</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="4">
         <v>6</v>
       </c>
@@ -33652,7 +34544,7 @@
         <v>21.144615246699406</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" s="4">
         <v>7</v>
       </c>
@@ -33660,7 +34552,7 @@
         <v>22.315384791447567</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" s="4">
         <v>8</v>
       </c>
@@ -33668,7 +34560,7 @@
         <v>24.150769086984489</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" s="4">
         <v>9</v>
       </c>
@@ -33676,7 +34568,7 @@
         <v>23.712307416475735</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" s="4">
         <v>10</v>
       </c>
@@ -33684,7 +34576,7 @@
         <v>22.427692119891827</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" s="4">
         <v>11</v>
       </c>
@@ -33692,7 +34584,7 @@
         <v>23.073846156780537</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="4">
         <v>12</v>
       </c>
@@ -33700,7 +34592,7 @@
         <v>21.359230848459099</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>5</v>
       </c>
@@ -33708,7 +34600,7 @@
         <v>22.171760942950939</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -33716,7 +34608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" s="4">
         <v>1</v>
       </c>
@@ -33724,7 +34616,7 @@
         <v>14.215714250292097</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" s="4">
         <v>2</v>
       </c>
@@ -33732,7 +34624,7 @@
         <v>14.511428560529437</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" s="4">
         <v>3</v>
       </c>
@@ -33740,7 +34632,7 @@
         <v>14.38071414402553</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" s="4">
         <v>4</v>
       </c>
@@ -33748,7 +34640,7 @@
         <v>14.288461538461538</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" s="4">
         <v>5</v>
       </c>
@@ -33756,7 +34648,7 @@
         <v>14.393076933347261</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" s="4">
         <v>6</v>
       </c>
@@ -33764,7 +34656,7 @@
         <v>13.978461559002216</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" s="4">
         <v>7</v>
       </c>
@@ -33772,7 +34664,7 @@
         <v>13.726923135610727</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" s="4">
         <v>8</v>
       </c>
@@ -33780,7 +34672,7 @@
         <v>14.508461438692533</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" s="4">
         <v>9</v>
       </c>
@@ -33788,7 +34680,7 @@
         <v>15.286153866694523</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" s="4">
         <v>10</v>
       </c>
@@ -33796,7 +34688,7 @@
         <v>15.130769289456881</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" s="4">
         <v>11</v>
       </c>
@@ -33804,7 +34696,7 @@
         <v>14.513846030602089</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" s="4">
         <v>12</v>
       </c>
@@ -33812,7 +34704,7 @@
         <v>14.011538505554199</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
         <v>5</v>
       </c>
@@ -33835,12 +34727,12 @@
       <selection activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -33860,7 +34752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>20.64315775821083</v>
       </c>
@@ -33881,7 +34773,7 @@
         <v>40179</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>22.540000012046409</v>
       </c>
@@ -33902,7 +34794,7 @@
         <v>40210</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>17.767391287762191</v>
       </c>
@@ -33923,7 +34815,7 @@
         <v>40238</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>17.424285661606561</v>
       </c>
@@ -33944,7 +34836,7 @@
         <v>40269</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>31.92950000762939</v>
       </c>
@@ -33965,7 +34857,7 @@
         <v>40299</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>29.916363716125488</v>
       </c>
@@ -33986,7 +34878,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>25.565237862723219</v>
       </c>
@@ -34007,7 +34899,7 @@
         <v>40360</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>24.74590899727561</v>
       </c>
@@ -34028,7 +34920,7 @@
         <v>40391</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>22.517618996756418</v>
       </c>
@@ -34049,7 +34941,7 @@
         <v>40422</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>20.3733332497733</v>
       </c>
@@ -34070,7 +34962,7 @@
         <v>40452</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>20.09571438743955</v>
       </c>
@@ -34091,7 +34983,7 @@
         <v>40483</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>17.569545529105451</v>
       </c>
@@ -34112,7 +35004,7 @@
         <v>40513</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>17.315499877929689</v>
       </c>
@@ -34133,7 +35025,7 @@
         <v>40544</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>17.429999903628701</v>
       </c>
@@ -34154,7 +35046,7 @@
         <v>40575</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>20.72347815140434</v>
       </c>
@@ -34175,7 +35067,7 @@
         <v>40603</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16.24400000572205</v>
       </c>
@@ -34196,7 +35088,7 @@
         <v>40634</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>16.911428587777269</v>
       </c>
@@ -34217,7 +35109,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>19.153182029724121</v>
       </c>
@@ -34238,7 +35130,7 @@
         <v>40695</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19.227499914169311</v>
       </c>
@@ -34259,7 +35151,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>35.029130355171539</v>
       </c>
@@ -34280,7 +35172,7 @@
         <v>40756</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>36.529999778384251</v>
       </c>
@@ -34301,7 +35193,7 @@
         <v>40787</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>32.829047702607653</v>
       </c>
@@ -34322,7 +35214,7 @@
         <v>40817</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>31.941904703776039</v>
       </c>
@@ -34343,7 +35235,7 @@
         <v>40848</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>25.047619047619051</v>
       </c>
@@ -34364,7 +35256,7 @@
         <v>40878</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>20.22799987792969</v>
       </c>
@@ -34385,7 +35277,7 @@
         <v>40909</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>18.420499992370601</v>
       </c>
@@ -34406,7 +35298,7 @@
         <v>40940</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>16.16727287119085</v>
       </c>
@@ -34427,7 +35319,7 @@
         <v>40969</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>17.82299990653992</v>
       </c>
@@ -34448,7 +35340,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>21.001818136735391</v>
       </c>
@@ -34469,7 +35361,7 @@
         <v>41030</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>21.13095229012626</v>
       </c>
@@ -34490,7 +35382,7 @@
         <v>41061</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>17.565238180614649</v>
       </c>
@@ -34511,7 +35403,7 @@
         <v>41091</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>15.689565119536031</v>
       </c>
@@ -34532,7 +35424,7 @@
         <v>41122</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>15.284736834074319</v>
       </c>
@@ -34553,7 +35445,7 @@
         <v>41153</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>16.276190576099211</v>
       </c>
@@ -34574,7 +35466,7 @@
         <v>41183</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>16.701904841831752</v>
       </c>
@@ -34595,7 +35487,7 @@
         <v>41214</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>17.306999826431269</v>
       </c>
@@ -34616,7 +35508,7 @@
         <v>41244</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>13.50523812430245</v>
       </c>
@@ -34637,7 +35529,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>14.07263163516396</v>
       </c>
@@ -34658,7 +35550,7 @@
         <v>41306</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>13.03150000572205</v>
       </c>
@@ -34679,7 +35571,7 @@
         <v>41334</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>13.967272715135049</v>
       </c>
@@ -34700,7 +35592,7 @@
         <v>41365</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>13.493636304681949</v>
       </c>
@@ -34721,7 +35613,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>17.271499919891362</v>
       </c>
@@ -34742,7 +35634,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>13.974545652216131</v>
       </c>
@@ -34763,7 +35655,7 @@
         <v>41456</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>14.209999908100469</v>
       </c>
@@ -34784,7 +35676,7 @@
         <v>41487</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>14.692000102996831</v>
       </c>
@@ -34805,7 +35697,7 @@
         <v>41518</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>15.40782605046811</v>
       </c>
@@ -34826,7 +35718,7 @@
         <v>41548</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>12.923999977111819</v>
       </c>
@@ -34847,7 +35739,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>14.192380905151371</v>
       </c>
@@ -34868,7 +35760,7 @@
         <v>41609</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>14.24095240093413</v>
       </c>
@@ -34889,7 +35781,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>15.47000011644865</v>
       </c>
@@ -34910,7 +35802,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>14.83666674296061</v>
       </c>
@@ -34931,7 +35823,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>14.19809532165527</v>
       </c>
@@ -34952,7 +35844,7 @@
         <v>41730</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>12.475238028026761</v>
       </c>
@@ -34973,7 +35865,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>11.541428565979</v>
       </c>
@@ -34994,7 +35886,7 @@
         <v>41791</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>12.296363613822241</v>
       </c>
@@ -35015,7 +35907,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>13.497142927987239</v>
       </c>
@@ -35036,7 +35928,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>13.466666630336221</v>
       </c>
@@ -35057,7 +35949,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>18.016087117402449</v>
       </c>
@@ -35078,7 +35970,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>13.41315786462081</v>
       </c>
@@ -35099,7 +35991,7 @@
         <v>41944</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>16.311818296259101</v>
       </c>
@@ -35120,7 +36012,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>19.119499969482419</v>
       </c>
@@ -35141,7 +36033,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>15.904210492184291</v>
       </c>
@@ -35162,7 +36054,7 @@
         <v>42036</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>14.812727277929129</v>
       </c>
@@ -35183,7 +36075,7 @@
         <v>42064</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>13.49476187569755</v>
       </c>
@@ -35204,7 +36096,7 @@
         <v>42095</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>13.3385000705719</v>
       </c>
@@ -35225,7 +36117,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>14.339545510031961</v>
       </c>
@@ -35246,7 +36138,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>14.35272723978216</v>
       </c>
@@ -35267,7 +36159,7 @@
         <v>42186</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>19.42809536343529</v>
       </c>
@@ -35288,7 +36180,7 @@
         <v>42217</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>24.377142860775901</v>
       </c>
@@ -35309,7 +36201,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>16.789545449343599</v>
       </c>
@@ -35330,7 +36222,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>16.20999999046326</v>
       </c>
@@ -35351,7 +36243,7 @@
         <v>42309</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>18.025454737923361</v>
       </c>
@@ -35372,7 +36264,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>23.717894805105111</v>
       </c>
@@ -35393,7 +36285,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>22.516999816894529</v>
       </c>
@@ -35414,7 +36306,7 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>15.849090966311371</v>
       </c>
@@ -35435,7 +36327,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>14.300476255871001</v>
       </c>
@@ -35456,7 +36348,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>14.85285704476493</v>
       </c>
@@ -35477,7 +36369,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>17.774545496160329</v>
       </c>
@@ -35498,7 +36390,7 @@
         <v>42522</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>13.158500051498409</v>
       </c>
@@ -35519,7 +36411,7 @@
         <v>42552</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>12.399565240611199</v>
       </c>
@@ -35540,7 +36432,7 @@
         <v>42583</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>14.21952379317511</v>
       </c>
@@ -35561,7 +36453,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>14.58523804800851</v>
       </c>
@@ -35582,7 +36474,7 @@
         <v>42644</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>15.236190387180869</v>
       </c>
@@ -35603,7 +36495,7 @@
         <v>42675</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>12.472380956014</v>
       </c>
@@ -35624,7 +36516,7 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>11.608500003814701</v>
       </c>
@@ -35645,7 +36537,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>11.530526361967389</v>
       </c>
@@ -35666,7 +36558,7 @@
         <v>42767</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>11.897826111834981</v>
       </c>
@@ -35687,7 +36579,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>13.136315847698009</v>
       </c>
@@ -35708,7 +36600,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>10.862272782759231</v>
       </c>
@@ -35729,7 +36621,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>10.5136363289573</v>
       </c>
@@ -35750,7 +36642,7 @@
         <v>42887</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>10.264499998092649</v>
       </c>
@@ -35771,7 +36663,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>11.97565215566884</v>
       </c>
@@ -35792,7 +36684,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>10.43799996376038</v>
       </c>
@@ -35813,7 +36705,7 @@
         <v>42979</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>10.12545451250943</v>
       </c>
@@ -35834,7 +36726,7 @@
         <v>43009</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>10.54047616322835</v>
       </c>
@@ -35855,7 +36747,7 @@
         <v>43040</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>10.264500045776369</v>
       </c>
@@ -35876,7 +36768,7 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>11.06238101777576</v>
       </c>
@@ -35897,7 +36789,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>22.46473663731625</v>
       </c>
@@ -35918,7 +36810,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>19.02380975087484</v>
       </c>
@@ -35939,7 +36831,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>18.267619042169478</v>
       </c>
@@ -35960,7 +36852,7 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>14.12454548749057</v>
       </c>
@@ -35981,7 +36873,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>13.67809531802223</v>
       </c>
@@ -36002,7 +36894,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>13.147619065784269</v>
       </c>
@@ -36023,7 +36915,7 @@
         <v>43282</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>12.546956518422</v>
       </c>
@@ -36044,7 +36936,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>12.910526325828149</v>
       </c>
@@ -36065,7 +36957,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>19.35217363938041</v>
       </c>
@@ -36086,7 +36978,7 @@
         <v>43374</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>19.389047622680661</v>
       </c>
@@ -36107,7 +36999,7 @@
         <v>43405</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>24.953157726087071</v>
       </c>
@@ -36128,7 +37020,7 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>19.572380792526971</v>
       </c>
@@ -36149,7 +37041,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>15.234736844113</v>
       </c>
@@ -36170,7 +37062,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>14.485238075256349</v>
       </c>
@@ -36191,7 +37083,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>12.94904758816674</v>
       </c>
@@ -36212,7 +37104,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>16.72181805697354</v>
       </c>
@@ -36233,7 +37125,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>15.83599987030029</v>
       </c>
@@ -36254,7 +37146,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>13.30590907010165</v>
       </c>
@@ -36275,7 +37167,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>18.979090907356959</v>
       </c>
@@ -36296,7 +37188,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>15.558999872207639</v>
       </c>
@@ -36317,7 +37209,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>15.466521760691769</v>
       </c>
@@ -36338,7 +37230,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>12.523499965667719</v>
       </c>
@@ -36359,7 +37251,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>13.75666663760231</v>
       </c>
@@ -36380,7 +37272,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>13.940952437264579</v>
       </c>
@@ -36401,7 +37293,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>19.62894735838238</v>
       </c>
@@ -36422,7 +37314,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>57.736818400296301</v>
       </c>
@@ -36443,7 +37335,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>41.453809647333053</v>
       </c>
@@ -36464,7 +37356,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>30.89700002670288</v>
       </c>
@@ -36485,7 +37377,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>31.119545503096148</v>
       </c>
@@ -36506,7 +37398,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>26.840454621748489</v>
       </c>
@@ -36527,7 +37419,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>22.889523824055988</v>
       </c>
@@ -36548,7 +37440,7 @@
         <v>44044</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>27.647619065784269</v>
       </c>
@@ -36569,7 +37461,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>29.438636086203839</v>
       </c>
@@ -36590,7 +37482,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>24.995500087738041</v>
       </c>
@@ -36611,7 +37503,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>22.374090974981129</v>
       </c>
@@ -36632,7 +37524,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>24.909999847412109</v>
       </c>
@@ -36653,7 +37545,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>23.14052621941817</v>
       </c>
@@ -36674,7 +37566,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>21.84304353465205</v>
       </c>
@@ -36695,7 +37587,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>17.416190556117471</v>
       </c>
@@ -36716,7 +37608,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>19.7604998588562</v>
       </c>
@@ -36737,7 +37629,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>16.956818147139121</v>
       </c>
@@ -36758,7 +37650,7 @@
         <v>44348</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>17.60333351861863</v>
       </c>
@@ -36779,7 +37671,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>17.477727239782158</v>
       </c>
@@ -36800,7 +37692,7 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>19.8247617994036</v>
       </c>
@@ -36821,7 +37713,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>17.86904757363456</v>
       </c>
@@ -36842,7 +37734,7 @@
         <v>44470</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>18.500476246788391</v>
       </c>
@@ -36863,7 +37755,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>21.354545506564051</v>
       </c>
@@ -36884,7 +37776,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>23.181000041961671</v>
       </c>
@@ -36905,7 +37797,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>25.748421116879111</v>
       </c>
@@ -36926,7 +37818,7 @@
         <v>44593</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>26.96869568202807</v>
       </c>
@@ -36947,7 +37839,7 @@
         <v>44621</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>24.373500156402589</v>
       </c>
@@ -36968,7 +37860,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>29.445714587257019</v>
       </c>
@@ -36989,7 +37881,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>28.100000018165229</v>
       </c>
@@ -37010,7 +37902,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>24.868500041961671</v>
       </c>
@@ -37031,7 +37923,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>22.16956536666207</v>
       </c>
@@ -37052,7 +37944,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>27.406190418061751</v>
       </c>
@@ -37073,7 +37965,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>30.00571441650391</v>
       </c>
@@ -37094,7 +37986,7 @@
         <v>44835</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>23.436190650576641</v>
       </c>
@@ -37115,7 +38007,7 @@
         <v>44866</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>21.784285681588312</v>
       </c>
@@ -37136,7 +38028,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>20.202999973297121</v>
       </c>
@@ -37157,7 +38049,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>20.06210537960655</v>
       </c>
@@ -37192,28 +38084,28 @@
       <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -37227,7 +38119,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -37235,7 +38127,7 @@
         <v>18.868881563315718</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -37243,7 +38135,7 @@
         <v>20.322539927163813</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -37251,7 +38143,7 @@
         <v>18.080644198470367</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -37259,7 +38151,7 @@
         <v>18.908832998479003</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -37267,7 +38159,7 @@
         <v>19.025508670286065</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -37275,7 +38167,7 @@
         <v>17.090032987010265</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -37283,7 +38175,7 @@
         <v>18.541378763389648</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -37291,7 +38183,7 @@
         <v>19.605675880118834</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -37299,7 +38191,7 @@
         <v>19.733447398663596</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -37307,7 +38199,7 @@
         <v>18.14677406839261</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -37315,7 +38207,7 @@
         <v>18.10872660546945</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -37323,7 +38215,7 @@
         <v>18.717368793762876</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -37331,7 +38223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -37339,7 +38231,7 @@
         <v>24.319999831063406</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -37347,7 +38239,7 @@
         <v>28.207142489297048</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="4">
         <v>3</v>
       </c>
@@ -37355,7 +38247,7 @@
         <v>27.202142919812882</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -37363,7 +38255,7 @@
         <v>23.411538564241848</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="4">
         <v>5</v>
       </c>
@@ -37371,7 +38263,7 @@
         <v>24.837692260742188</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="4">
         <v>6</v>
       </c>
@@ -37379,7 +38271,7 @@
         <v>25.146922845106857</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="4">
         <v>7</v>
       </c>
@@ -37387,7 +38279,7 @@
         <v>22.484615399287296</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" s="4">
         <v>8</v>
       </c>
@@ -37395,7 +38287,7 @@
         <v>26.018461667574368</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" s="4">
         <v>9</v>
       </c>
@@ -37403,7 +38295,7 @@
         <v>25.357692131629356</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" s="4">
         <v>10</v>
       </c>
@@ -37411,7 +38303,7 @@
         <v>26.96384598658635</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" s="4">
         <v>11</v>
       </c>
@@ -37419,7 +38311,7 @@
         <v>23.203846051142765</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" s="4">
         <v>12</v>
       </c>
@@ -37427,7 +38319,7 @@
         <v>24.649230736952561</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
@@ -37435,7 +38327,7 @@
         <v>25.177169727829266</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -37443,7 +38335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -37451,7 +38343,7 @@
         <v>15.057857240949359</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" s="4">
         <v>2</v>
       </c>
@@ -37459,7 +38351,7 @@
         <v>15.214999880109515</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" s="4">
         <v>3</v>
       </c>
@@ -37467,7 +38359,7 @@
         <v>15.266428674970355</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" s="4">
         <v>4</v>
       </c>
@@ -37475,7 +38367,7 @@
         <v>14.916923229510967</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" s="4">
         <v>5</v>
       </c>
@@ -37483,7 +38375,7 @@
         <v>15.315384644728441</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" s="4">
         <v>6</v>
       </c>
@@ -37491,7 +38383,7 @@
         <v>15.433077151958759</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" s="4">
         <v>7</v>
       </c>
@@ -37499,7 +38391,7 @@
         <v>14.528461309579702</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" s="4">
         <v>8</v>
       </c>
@@ -37507,7 +38399,7 @@
         <v>14.623077025780312</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" s="4">
         <v>9</v>
       </c>
@@ -37515,7 +38407,7 @@
         <v>16.56000019953801</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" s="4">
         <v>10</v>
       </c>
@@ -37523,7 +38415,7 @@
         <v>15.724615537203276</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" s="4">
         <v>11</v>
       </c>
@@ -37531,7 +38423,7 @@
         <v>15.377692369314341</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" s="4">
         <v>12</v>
       </c>
@@ -37539,7 +38431,7 @@
         <v>14.756923015301044</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
         <v>5</v>
       </c>
